--- a/Documents/MTRN4230 Asst 2 Requirements Tracking Group L.xlsx
+++ b/Documents/MTRN4230 Asst 2 Requirements Tracking Group L.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Working" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Stati">Working!$A$3:$A$5</definedName>
+    <definedName name="Stati">Working!$A$3:$A$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,15 +1390,17 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>20170814</v>
+        <v>20170829</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>95</v>
       </c>
@@ -29306,7 +29308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29435,9 +29439,6 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
